--- a/ArtigoKrigingVsg/peaks/Power/content/results/metrics_1_40.xlsx
+++ b/ArtigoKrigingVsg/peaks/Power/content/results/metrics_1_40.xlsx
@@ -512,46 +512,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9938299183641386</v>
+        <v>0.8439371883097511</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8009415477595054</v>
+        <v>0.6060916989979137</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7695678884964413</v>
+        <v>0.7482405422761302</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9764204100260431</v>
+        <v>0.7181572864706587</v>
       </c>
       <c r="F2" t="n">
-        <v>0.02568312953091054</v>
+        <v>0.3698989268897811</v>
       </c>
       <c r="G2" t="n">
-        <v>1.33110478671208</v>
+        <v>2.634066622581899</v>
       </c>
       <c r="H2" t="n">
-        <v>0.8242423016267165</v>
+        <v>0.9005289824261832</v>
       </c>
       <c r="I2" t="n">
-        <v>0.05192569590980338</v>
+        <v>0.3655471302785782</v>
       </c>
       <c r="J2" t="n">
-        <v>0.4524774654825606</v>
+        <v>1.146125184459998</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1602595692335111</v>
+        <v>0.608193165770367</v>
       </c>
       <c r="L2" t="n">
-        <v>1.39488522469513</v>
+        <v>0.7874889372728525</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1627834972481433</v>
+        <v>0.6177716001611333</v>
       </c>
       <c r="N2" t="n">
-        <v>137.323841882234</v>
+        <v>35.98905096245981</v>
       </c>
       <c r="O2" t="n">
-        <v>278.6590144254504</v>
+        <v>72.95363455068562</v>
       </c>
     </row>
     <row r="3">
@@ -561,46 +561,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9938900225921204</v>
+        <v>0.8437272977274894</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8006446413388759</v>
+        <v>0.605789574441524</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7680308619739737</v>
+        <v>0.748014747743458</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9777249049198825</v>
+        <v>0.7191075992831784</v>
       </c>
       <c r="F3" t="n">
-        <v>0.02543294407734334</v>
+        <v>0.3703964080020461</v>
       </c>
       <c r="G3" t="n">
-        <v>1.333090201313958</v>
+        <v>2.636086930881633</v>
       </c>
       <c r="H3" t="n">
-        <v>0.8297401563756647</v>
+        <v>0.9013366363772324</v>
       </c>
       <c r="I3" t="n">
-        <v>0.04905300790936698</v>
+        <v>0.3643145842349589</v>
       </c>
       <c r="J3" t="n">
-        <v>0.4516377043985476</v>
+        <v>1.138861811484553</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1594770957766141</v>
+        <v>0.6086020111715423</v>
       </c>
       <c r="L3" t="n">
-        <v>1.391038554104291</v>
+        <v>0.7872031288204111</v>
       </c>
       <c r="M3" t="n">
-        <v>0.1619887006164866</v>
+        <v>0.6181868844686816</v>
       </c>
       <c r="N3" t="n">
-        <v>137.3434198688614</v>
+        <v>35.9863629477516</v>
       </c>
       <c r="O3" t="n">
-        <v>278.6785924120778</v>
+        <v>72.95094653597742</v>
       </c>
     </row>
     <row r="4">
@@ -610,46 +610,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9939752366191063</v>
+        <v>0.8435048914677776</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8002736880227015</v>
+        <v>0.6054733677846823</v>
       </c>
       <c r="D4" t="n">
-        <v>0.766261868598944</v>
+        <v>0.7477933048361203</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9792734586139489</v>
+        <v>0.7200377980703696</v>
       </c>
       <c r="F4" t="n">
-        <v>0.02507823841507054</v>
+        <v>0.3709235536808275</v>
       </c>
       <c r="G4" t="n">
-        <v>1.335570767847299</v>
+        <v>2.638201406251931</v>
       </c>
       <c r="H4" t="n">
-        <v>0.8360677431060168</v>
+        <v>0.9021287248167817</v>
       </c>
       <c r="I4" t="n">
-        <v>0.045642866837919</v>
+        <v>0.3631081258774289</v>
       </c>
       <c r="J4" t="n">
-        <v>0.4492848489815754</v>
+        <v>1.131927061421082</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1583611013319576</v>
+        <v>0.609034936338489</v>
       </c>
       <c r="L4" t="n">
-        <v>1.3855848563772</v>
+        <v>0.7869002777433568</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1608551303749119</v>
+        <v>0.6186266277742415</v>
       </c>
       <c r="N4" t="n">
-        <v>137.3715096086356</v>
+        <v>35.98351858475112</v>
       </c>
       <c r="O4" t="n">
-        <v>278.706682151852</v>
+        <v>72.94810217297695</v>
       </c>
     </row>
     <row r="5">
@@ -659,46 +659,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9940572612089156</v>
+        <v>0.8432709188345026</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7998923159224651</v>
+        <v>0.6051466429564358</v>
       </c>
       <c r="D5" t="n">
-        <v>0.764373251735354</v>
+        <v>0.7475744023209694</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9808239406598149</v>
+        <v>0.7209559638857395</v>
       </c>
       <c r="F5" t="n">
-        <v>0.02473680887019231</v>
+        <v>0.3714781138930437</v>
       </c>
       <c r="G5" t="n">
-        <v>1.338121004837637</v>
+        <v>2.640386216682844</v>
       </c>
       <c r="H5" t="n">
-        <v>0.8428232161187805</v>
+        <v>0.9029117264207797</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0422284792545823</v>
+        <v>0.3619172741618553</v>
       </c>
       <c r="J5" t="n">
-        <v>0.4465095935434626</v>
+        <v>1.125102505661931</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1572793974752965</v>
+        <v>0.6094900441295523</v>
       </c>
       <c r="L5" t="n">
-        <v>1.380335282629403</v>
+        <v>0.786581676710812</v>
       </c>
       <c r="M5" t="n">
-        <v>0.1597563907638156</v>
+        <v>0.6190889030580731</v>
       </c>
       <c r="N5" t="n">
-        <v>137.3989258139816</v>
+        <v>35.98053065872896</v>
       </c>
       <c r="O5" t="n">
-        <v>278.734098357198</v>
+        <v>72.94511424695477</v>
       </c>
     </row>
     <row r="6">
@@ -708,46 +708,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9941271322115766</v>
+        <v>0.8430243702012037</v>
       </c>
       <c r="C6" t="n">
-        <v>0.799536794028496</v>
+        <v>0.6048071920978424</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7624728016848424</v>
+        <v>0.7473586854962413</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9822349791103194</v>
+        <v>0.7218583798880638</v>
       </c>
       <c r="F6" t="n">
-        <v>0.02444596895628128</v>
+        <v>0.3720624816478961</v>
       </c>
       <c r="G6" t="n">
-        <v>1.340498381379637</v>
+        <v>2.642656126137286</v>
       </c>
       <c r="H6" t="n">
-        <v>0.849621015755035</v>
+        <v>0.9036833329948522</v>
       </c>
       <c r="I6" t="n">
-        <v>0.03912116680432912</v>
+        <v>0.360746849793468</v>
       </c>
       <c r="J6" t="n">
-        <v>0.4430713749813368</v>
+        <v>1.118417163328348</v>
       </c>
       <c r="K6" t="n">
-        <v>0.1563520673233369</v>
+        <v>0.609969246477145</v>
       </c>
       <c r="L6" t="n">
-        <v>1.3758635384591</v>
+        <v>0.7862459509122773</v>
       </c>
       <c r="M6" t="n">
-        <v>0.1588144560889527</v>
+        <v>0.6195756523636138</v>
       </c>
       <c r="N6" t="n">
-        <v>137.4225798910348</v>
+        <v>35.97738695478771</v>
       </c>
       <c r="O6" t="n">
-        <v>278.7577524342511</v>
+        <v>72.94197054301353</v>
       </c>
     </row>
     <row r="7">
@@ -757,46 +757,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9941717778108383</v>
+        <v>0.8427656559300999</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7991901858166254</v>
+        <v>0.6044569630525044</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7606667514457631</v>
+        <v>0.7471445527954688</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9834335815430488</v>
+        <v>0.7227491288218619</v>
       </c>
       <c r="F7" t="n">
-        <v>0.02426013045745808</v>
+        <v>0.3726756843078759</v>
       </c>
       <c r="G7" t="n">
-        <v>1.342816152088399</v>
+        <v>2.644998109376118</v>
       </c>
       <c r="H7" t="n">
-        <v>0.8560811527394121</v>
+        <v>0.904449273249388</v>
       </c>
       <c r="I7" t="n">
-        <v>0.03648166944634297</v>
+        <v>0.359591557494188</v>
       </c>
       <c r="J7" t="n">
-        <v>0.4407721379985441</v>
+        <v>1.111831471934784</v>
       </c>
       <c r="K7" t="n">
-        <v>0.1557566385662521</v>
+        <v>0.6104716900134485</v>
       </c>
       <c r="L7" t="n">
-        <v>1.373006220106348</v>
+        <v>0.7858936591388594</v>
       </c>
       <c r="M7" t="n">
-        <v>0.1582096499241542</v>
+        <v>0.6200860088833547</v>
       </c>
       <c r="N7" t="n">
-        <v>137.4378419960184</v>
+        <v>35.9740934332437</v>
       </c>
       <c r="O7" t="n">
-        <v>278.7730145392349</v>
+        <v>72.93867702146953</v>
       </c>
     </row>
     <row r="8">
@@ -806,46 +806,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9942043946008007</v>
+        <v>0.8424946170602871</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7988860847860704</v>
+        <v>0.6040961566188012</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7590294209458641</v>
+        <v>0.7469313270489328</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9845499466462034</v>
+        <v>0.7236296863980747</v>
       </c>
       <c r="F8" t="n">
-        <v>0.02412436219847515</v>
+        <v>0.3733180986409469</v>
       </c>
       <c r="G8" t="n">
-        <v>1.344849677079977</v>
+        <v>2.647410823659653</v>
       </c>
       <c r="H8" t="n">
-        <v>0.8619377889996735</v>
+        <v>0.9052119693812077</v>
       </c>
       <c r="I8" t="n">
-        <v>0.03402327068136254</v>
+        <v>0.358449483281948</v>
       </c>
       <c r="J8" t="n">
-        <v>0.4389237315259436</v>
+        <v>1.105359190892795</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1553201925007665</v>
+        <v>0.610997625724476</v>
       </c>
       <c r="L8" t="n">
-        <v>1.370918745548757</v>
+        <v>0.7855245849331569</v>
       </c>
       <c r="M8" t="n">
-        <v>0.1577663302694232</v>
+        <v>0.6206202275560881</v>
       </c>
       <c r="N8" t="n">
-        <v>137.4490661389509</v>
+        <v>35.97064882281099</v>
       </c>
       <c r="O8" t="n">
-        <v>278.7842386821673</v>
+        <v>72.93523241103681</v>
       </c>
     </row>
     <row r="9">
@@ -855,46 +855,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9942297250963887</v>
+        <v>0.8422113014777308</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7985699139680751</v>
+        <v>0.6037260611239883</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7573598736677947</v>
+        <v>0.7467176098281243</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9856023131191676</v>
+        <v>0.7245028421612081</v>
       </c>
       <c r="F9" t="n">
-        <v>0.02401892333434589</v>
+        <v>0.3739896111481461</v>
       </c>
       <c r="G9" t="n">
-        <v>1.346963912795744</v>
+        <v>2.649885653937599</v>
       </c>
       <c r="H9" t="n">
-        <v>0.8679096628074148</v>
+        <v>0.9059764234880036</v>
       </c>
       <c r="I9" t="n">
-        <v>0.03170580623345806</v>
+        <v>0.3573170091459212</v>
       </c>
       <c r="J9" t="n">
-        <v>0.436766844785869</v>
+        <v>1.098976945764382</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1549803966130746</v>
+        <v>0.6115469002032028</v>
       </c>
       <c r="L9" t="n">
-        <v>1.369297593831121</v>
+        <v>0.7851387935015909</v>
       </c>
       <c r="M9" t="n">
-        <v>0.1574211829361714</v>
+        <v>0.6211781525587818</v>
       </c>
       <c r="N9" t="n">
-        <v>137.4578265741015</v>
+        <v>35.96705451926433</v>
       </c>
       <c r="O9" t="n">
-        <v>278.7929991173179</v>
+        <v>72.93163810749016</v>
       </c>
     </row>
     <row r="10">
@@ -904,46 +904,46 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9942444615335415</v>
+        <v>0.8419153720260807</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7983115977045768</v>
+        <v>0.6033462713303215</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7556695819858503</v>
+        <v>0.7465032775597147</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9866140051358598</v>
+        <v>0.7253687236970953</v>
       </c>
       <c r="F10" t="n">
-        <v>0.02395758252128088</v>
+        <v>0.3746910209549729</v>
       </c>
       <c r="G10" t="n">
-        <v>1.348691274839194</v>
+        <v>2.65242531003662</v>
       </c>
       <c r="H10" t="n">
-        <v>0.8739557381449869</v>
+        <v>0.9067430775844053</v>
       </c>
       <c r="I10" t="n">
-        <v>0.02947791287012319</v>
+        <v>0.3561939696085807</v>
       </c>
       <c r="J10" t="n">
-        <v>0.4348060627349578</v>
+        <v>1.092731321909657</v>
       </c>
       <c r="K10" t="n">
-        <v>0.1547823714809955</v>
+        <v>0.6121201033743074</v>
       </c>
       <c r="L10" t="n">
-        <v>1.368354461853343</v>
+        <v>0.7847358257376418</v>
       </c>
       <c r="M10" t="n">
-        <v>0.1572200391062146</v>
+        <v>0.6217603831068385</v>
       </c>
       <c r="N10" t="n">
-        <v>137.4629408145319</v>
+        <v>35.96330707352065</v>
       </c>
       <c r="O10" t="n">
-        <v>278.7981133577484</v>
+        <v>72.92789066174647</v>
       </c>
     </row>
     <row r="11">
@@ -953,46 +953,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9942486882613847</v>
+        <v>0.8416069833243358</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7978511159524093</v>
+        <v>0.6029579708056578</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7525962821568759</v>
+        <v>0.7462866048513472</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9884148379411819</v>
+        <v>0.7262305573361929</v>
       </c>
       <c r="F11" t="n">
-        <v>0.02393998865379376</v>
+        <v>0.3754219615846134</v>
       </c>
       <c r="G11" t="n">
-        <v>1.351770518436261</v>
+        <v>2.655021877433005</v>
       </c>
       <c r="H11" t="n">
-        <v>0.8849487534330656</v>
+        <v>0.9075181032988305</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0255122164039493</v>
+        <v>0.3550761801521686</v>
       </c>
       <c r="J11" t="n">
-        <v>0.4315842667568278</v>
+        <v>1.086619593749838</v>
       </c>
       <c r="K11" t="n">
-        <v>0.1547255268331434</v>
+        <v>0.6127168690224004</v>
       </c>
       <c r="L11" t="n">
-        <v>1.36808395127138</v>
+        <v>0.7843158921863296</v>
       </c>
       <c r="M11" t="n">
-        <v>0.1571622992119826</v>
+        <v>0.6223665472173421</v>
       </c>
       <c r="N11" t="n">
-        <v>137.4644101055918</v>
+        <v>35.95940930943441</v>
       </c>
       <c r="O11" t="n">
-        <v>278.7995826488082</v>
+        <v>72.92399289766023</v>
       </c>
     </row>
   </sheetData>
